--- a/biology/Botanique/Jardin_Tereska-Torrès-Levin/Jardin_Tereska-Torrès-Levin.xlsx
+++ b/biology/Botanique/Jardin_Tereska-Torrès-Levin/Jardin_Tereska-Torrès-Levin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_Tereska-Torr%C3%A8s-Levin</t>
+          <t>Jardin_Tereska-Torrès-Levin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Tereska-Torrès-Levin est un espace vert du 8e arrondissement de Paris, dans le quartier du Faubourg-du-Roule.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_Tereska-Torr%C3%A8s-Levin</t>
+          <t>Jardin_Tereska-Torrès-Levin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le square est encadré par deux voies :
 au nord : la rue Laure-Diebold ;
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_Tereska-Torr%C3%A8s-Levin</t>
+          <t>Jardin_Tereska-Torrès-Levin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été nommé en mémoire de Tereska Torrès, née Tereska Szwarc le 3 septembre 1920 à Paris, et décédée le 20 septembre 2012 à Paris, résistante et femme de lettres franco-américaine[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été nommé en mémoire de Tereska Torrès, née Tereska Szwarc le 3 septembre 1920 à Paris, et décédée le 20 septembre 2012 à Paris, résistante et femme de lettres franco-américaine.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardin_Tereska-Torr%C3%A8s-Levin</t>
+          <t>Jardin_Tereska-Torrès-Levin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,11 +594,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jardin a été aménagé sur le site de l'ancien hôpital Beaujon et fait partie de l'opération d'aménagement de la ZAC Beaujon[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jardin a été aménagé sur le site de l'ancien hôpital Beaujon et fait partie de l'opération d'aménagement de la ZAC Beaujon.
 Il a été ouvert au public en 2019 et comprend une aire de jeux pour les enfants. Il est proche du parc Monceau.
-Le Conseil de Paris lui a donné sa dénomination officielle en 2019[3].
+Le Conseil de Paris lui a donné sa dénomination officielle en 2019.
 </t>
         </is>
       </c>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardin_Tereska-Torr%C3%A8s-Levin</t>
+          <t>Jardin_Tereska-Torrès-Levin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l'enceinte du jardin, face à l'école, se dresse une stèle de l'Association pour la mémoire des enfants juifs déportés, en mémoire des enfants en bas âge du 8e arrondissement arrêtés par les nazis et envoyés à la mort pendant la Seconde Guerre mondiale[Note 1].
 </t>
